--- a/output/ak_closure_summary.xlsx
+++ b/output/ak_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,28 +818,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nome Youth Facility</t>
+          <t>Gladys Dart School</t>
         </is>
       </c>
       <c r="D11">
-        <v>357020</v>
+        <v>520070</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>020057000332</t>
+          <t>020086200383</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nome Public Schools</t>
+          <t>Yukon-Koyukuk School District</t>
         </is>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0200570</t>
+          <t>0200862</t>
         </is>
       </c>
       <c r="I11">
@@ -852,38 +852,38 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gladys Dart School</t>
+          <t>AVAIL School</t>
         </is>
       </c>
       <c r="D12">
-        <v>520070</v>
+        <v>50980</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>020086200383</t>
+          <t>020018000714</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yukon-Koyukuk School District</t>
+          <t>Anchorage School District</t>
         </is>
       </c>
       <c r="G12">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0200862</t>
+          <t>0200180</t>
         </is>
       </c>
       <c r="I12">
@@ -906,28 +906,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AVAIL School</t>
+          <t>Star of the North Secondary School</t>
         </is>
       </c>
       <c r="D13">
-        <v>50980</v>
+        <v>169030</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>020018000714</t>
+          <t>020060000462</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Anchorage School District</t>
+          <t>Fairbanks North Star Borough School District</t>
         </is>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0200180</t>
+          <t>0200600</t>
         </is>
       </c>
       <c r="I13">
@@ -950,28 +950,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Star of the North Secondary School</t>
+          <t>Hyder School</t>
         </is>
       </c>
       <c r="D14">
-        <v>169030</v>
+        <v>440340</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>020060000462</t>
+          <t>020070000428</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fairbanks North Star Borough School District</t>
+          <t>Southeast Island School District</t>
         </is>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0200600</t>
+          <t>0200700</t>
         </is>
       </c>
       <c r="I14">
@@ -984,38 +984,38 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hyder School</t>
+          <t>The New Path High School</t>
         </is>
       </c>
       <c r="D15">
-        <v>440340</v>
+        <v>57220</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>020070000428</t>
+          <t>020018000399</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Southeast Island School District</t>
+          <t>Anchorage School District</t>
         </is>
       </c>
       <c r="G15">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0200700</t>
+          <t>0200180</t>
         </is>
       </c>
       <c r="I15">
@@ -1028,38 +1028,38 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yukon Flats Distance Education Program</t>
+          <t>Ursa Major Elementary</t>
         </is>
       </c>
       <c r="D16">
-        <v>518010</v>
+        <v>50340</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>020077500446</t>
+          <t>020018000400</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yukon Flats School District</t>
+          <t>Anchorage School District</t>
         </is>
       </c>
       <c r="G16">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0200775</t>
+          <t>0200180</t>
         </is>
       </c>
       <c r="I16">
@@ -1072,38 +1072,38 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The New Path High School</t>
+          <t>Anderson Elementary</t>
         </is>
       </c>
       <c r="D17">
-        <v>57220</v>
+        <v>160080</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>020018000399</t>
+          <t>020060000256</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Anchorage School District</t>
+          <t>Fairbanks North Star Borough School District</t>
         </is>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0200180</t>
+          <t>0200600</t>
         </is>
       </c>
       <c r="I17">
@@ -1116,82 +1116,82 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Qargi Academy</t>
+          <t>Joy Elementary</t>
         </is>
       </c>
       <c r="D18">
-        <v>369010</v>
+        <v>160200</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>020061000768</t>
+          <t>020060000269</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>North Slope Borough School District</t>
+          <t>Fairbanks North Star Borough School District</t>
         </is>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0200610</t>
+          <t>0200600</t>
         </is>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Accelus Correspondence</t>
+          <t>Nordale Elementary</t>
         </is>
       </c>
       <c r="D19">
-        <v>548010</v>
+        <v>160230</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>020000400769</t>
+          <t>020060000271</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Yupiit School District</t>
+          <t>Fairbanks North Star Borough School District</t>
         </is>
       </c>
       <c r="G19">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0200004</t>
+          <t>0200600</t>
         </is>
       </c>
       <c r="I19">
@@ -1204,38 +1204,38 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ursa Major Elementary</t>
+          <t>Adak School</t>
         </is>
       </c>
       <c r="D20">
-        <v>50340</v>
+        <v>40080</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>020018000400</t>
+          <t>020001000080</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Anchorage School District</t>
+          <t>Aleutian Region School District</t>
         </is>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0200180</t>
+          <t>0200010</t>
         </is>
       </c>
       <c r="I20">
@@ -1248,38 +1248,38 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dillingham Correspondence School</t>
+          <t>Abbott Loop Elementary</t>
         </is>
       </c>
       <c r="D21">
-        <v>158010</v>
+        <v>50010</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>020012000745</t>
+          <t>020018000053</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dillingham City School District</t>
+          <t>Anchorage School District</t>
         </is>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0200120</t>
+          <t>0200180</t>
         </is>
       </c>
       <c r="I21">
@@ -1292,38 +1292,38 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Anderson Elementary</t>
+          <t>Chignik Bay School</t>
         </is>
       </c>
       <c r="D22">
-        <v>160080</v>
+        <v>300010</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>020060000256</t>
+          <t>020048500193</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fairbanks North Star Borough School District</t>
+          <t>Lake and Peninsula Borough School District</t>
         </is>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0200600</t>
+          <t>0200485</t>
         </is>
       </c>
       <c r="I22">
@@ -1336,308 +1336,44 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Joy Elementary</t>
+          <t>Pilot Point School</t>
         </is>
       </c>
       <c r="D23">
-        <v>160200</v>
+        <v>300130</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>020060000269</t>
+          <t>020048500203</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fairbanks North Star Borough School District</t>
+          <t>Lake and Peninsula Borough School District</t>
         </is>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0200600</t>
+          <t>0200485</t>
         </is>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Nordale Elementary</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>160230</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>020060000271</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Fairbanks North Star Borough School District</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0200600</t>
-        </is>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Adak School</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>40080</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>020001000080</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Aleutian Region School District</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0200010</t>
-        </is>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Abbott Loop Elementary</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>50010</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>020018000053</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Anchorage School District</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0200180</t>
-        </is>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Chignik Bay School</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>300010</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>020048500193</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Lake and Peninsula Borough School District</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>30</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0200485</t>
-        </is>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Pilot Point School</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>300130</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>020048500203</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Lake and Peninsula Borough School District</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>30</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0200485</t>
-        </is>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Valdez Home School</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>488010</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>020078000753</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Valdez City School District</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>48</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0200780</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
